--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="653">
   <si>
     <t>Property</t>
   </si>
@@ -850,7 +850,7 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_SimpleObservationCategory_VS</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:coding.system}
 </t>
   </si>
   <si>
@@ -941,6 +941,166 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>Observation.category:simpleObservation.id</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_SimpleObservationCategory_CS</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.text</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -1013,9 +1173,6 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.
 コード体系。</t>
   </si>
@@ -1025,92 +1182,19 @@
 URIは本WGで定義する。</t>
   </si>
   <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
     <t>Observation.code.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
     <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
   </si>
   <si>
     <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).
@@ -1119,18 +1203,6 @@
   <si>
     <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.
 【JP Core仕様】当面は未使用とする。</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -2388,7 +2460,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP83"/>
+  <dimension ref="A1:AP94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2397,7 +2469,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -5823,15 +5895,15 @@
         <v>289</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>93</v>
@@ -5843,23 +5915,19 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5883,13 +5951,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5907,10 +5975,10 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>289</v>
+        <v>164</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>93</v>
@@ -5919,44 +5987,44 @@
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>302</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>83</v>
@@ -5968,15 +6036,17 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -6013,31 +6083,31 @@
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
@@ -6060,14 +6130,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6083,21 +6153,23 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
       </c>
@@ -6133,19 +6205,19 @@
         <v>83</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -6157,7 +6229,7 @@
         <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>83</v>
@@ -6166,10 +6238,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -6180,10 +6252,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6191,11 +6263,11 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H32" t="s" s="2">
         <v>83</v>
       </c>
@@ -6203,23 +6275,19 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
@@ -6267,19 +6335,19 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
@@ -6288,10 +6356,10 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -6302,21 +6370,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -6328,15 +6396,17 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -6373,31 +6443,31 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -6420,21 +6490,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -6443,27 +6513,29 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>140</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -6493,31 +6565,31 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
@@ -6526,10 +6598,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>83</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6540,10 +6612,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6566,20 +6638,18 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6627,7 +6697,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6648,10 +6718,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6662,10 +6732,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6688,18 +6758,18 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>83</v>
       </c>
@@ -6747,7 +6817,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6768,10 +6838,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6782,10 +6852,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6808,19 +6878,17 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6869,7 +6937,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6890,10 +6958,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6904,10 +6972,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6930,7 +6998,7 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>334</v>
@@ -6939,10 +7007,10 @@
         <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6991,7 +7059,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -7012,10 +7080,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -7026,10 +7094,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7052,19 +7120,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>161</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -7113,7 +7181,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>281</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -7134,10 +7202,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>282</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -7148,14 +7216,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>83</v>
+        <v>343</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7174,19 +7242,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -7211,13 +7279,13 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -7235,10 +7303,10 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>93</v>
@@ -7250,30 +7318,30 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>83</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7281,7 +7349,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>93</v>
@@ -7293,23 +7361,19 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>162</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
       </c>
@@ -7357,7 +7421,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>164</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7369,22 +7433,22 @@
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>359</v>
+        <v>83</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>360</v>
+        <v>165</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>361</v>
+        <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>83</v>
@@ -7392,14 +7456,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7415,19 +7479,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>363</v>
+        <v>139</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>140</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>365</v>
+        <v>167</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>366</v>
+        <v>142</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7465,19 +7529,19 @@
         <v>83</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>362</v>
+        <v>171</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7489,7 +7553,7 @@
         <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -7498,13 +7562,13 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>367</v>
+        <v>165</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>361</v>
+        <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
@@ -7512,21 +7576,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>369</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -7538,19 +7602,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7599,13 +7663,13 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>273</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>83</v>
@@ -7614,19 +7678,19 @@
         <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7634,18 +7698,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>380</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>93</v>
@@ -7657,23 +7721,19 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>381</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>382</v>
+        <v>162</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7721,7 +7781,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>379</v>
+        <v>164</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7733,22 +7793,22 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>386</v>
+        <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>387</v>
+        <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>388</v>
+        <v>165</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7756,21 +7816,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7779,19 +7839,19 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>391</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
+        <v>140</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>393</v>
+        <v>167</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>394</v>
+        <v>142</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7829,31 +7889,31 @@
         <v>83</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>390</v>
+        <v>171</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7862,13 +7922,13 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>396</v>
+        <v>165</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>397</v>
+        <v>83</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7876,10 +7936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7890,7 +7950,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7902,19 +7962,19 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>399</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>400</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>403</v>
+        <v>302</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7963,13 +8023,13 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>398</v>
+        <v>304</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
@@ -7978,19 +8038,19 @@
         <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>407</v>
+        <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7998,10 +8058,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8024,20 +8084,18 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>409</v>
+        <v>161</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>410</v>
+        <v>309</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>411</v>
+        <v>310</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -8073,17 +8131,19 @@
         <v>83</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8092,7 +8152,7 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>105</v>
@@ -8101,31 +8161,29 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>418</v>
+        <v>313</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>419</v>
+        <v>314</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>420</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>83</v>
       </c>
@@ -8146,19 +8204,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>423</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>424</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>413</v>
+        <v>319</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -8207,7 +8265,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>408</v>
+        <v>320</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8216,7 +8274,7 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
@@ -8225,31 +8283,29 @@
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>418</v>
+        <v>321</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>419</v>
+        <v>322</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>420</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>83</v>
       </c>
@@ -8270,19 +8326,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>429</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>413</v>
+        <v>327</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -8331,7 +8387,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>328</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8340,7 +8396,7 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -8349,31 +8405,29 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>420</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>83</v>
       </c>
@@ -8394,19 +8448,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>433</v>
+        <v>334</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8455,7 +8509,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>408</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8464,7 +8518,7 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>105</v>
@@ -8473,27 +8527,27 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>417</v>
+        <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>418</v>
+        <v>339</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>419</v>
+        <v>340</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>420</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8501,7 +8555,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>93</v>
@@ -8513,22 +8567,22 @@
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>436</v>
+        <v>277</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>437</v>
+        <v>374</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>439</v>
+        <v>280</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8553,13 +8607,13 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>440</v>
+        <v>83</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>441</v>
+        <v>83</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -8577,7 +8631,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>435</v>
+        <v>281</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8586,7 +8640,7 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>105</v>
@@ -8598,10 +8652,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>443</v>
+        <v>283</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8612,21 +8666,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8635,22 +8689,22 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>183</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>446</v>
+        <v>378</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8675,13 +8729,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>450</v>
+        <v>83</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>451</v>
+        <v>83</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8699,13 +8753,13 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>83</v>
@@ -8714,30 +8768,30 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>83</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>452</v>
+        <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>453</v>
+        <v>383</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>454</v>
+        <v>384</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>455</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8757,23 +8811,21 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8821,7 +8873,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8842,13 +8894,13 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>462</v>
+        <v>352</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>463</v>
+        <v>391</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8856,14 +8908,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8879,19 +8931,23 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>162</v>
+        <v>395</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8939,7 +8995,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>164</v>
+        <v>392</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8951,22 +9007,22 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>83</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>165</v>
+        <v>401</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8974,21 +9030,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>138</v>
+        <v>404</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -8997,21 +9053,23 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>139</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>140</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -9047,46 +9105,46 @@
         <v>83</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>171</v>
+        <v>403</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>83</v>
+        <v>411</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>165</v>
+        <v>412</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>83</v>
+        <v>413</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -9094,10 +9152,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9120,16 +9178,16 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9179,7 +9237,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9200,13 +9258,13 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>136</v>
+        <v>419</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>83</v>
+        <v>421</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9214,10 +9272,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9228,7 +9286,7 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>83</v>
@@ -9240,16 +9298,20 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>475</v>
+        <v>424</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -9297,13 +9359,13 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
@@ -9312,19 +9374,19 @@
         <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>83</v>
+        <v>428</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>136</v>
+        <v>429</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9332,10 +9394,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9343,7 +9405,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>93</v>
@@ -9358,18 +9420,20 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
       </c>
@@ -9405,28 +9469,26 @@
         <v>83</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>83</v>
+        <v>439</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9435,29 +9497,31 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>136</v>
+        <v>442</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>83</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>83</v>
       </c>
@@ -9475,21 +9539,23 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>183</v>
+        <v>447</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
       </c>
@@ -9513,13 +9579,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>490</v>
+        <v>83</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>491</v>
+        <v>83</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>492</v>
+        <v>83</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9537,7 +9603,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9546,7 +9612,7 @@
         <v>93</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>105</v>
@@ -9555,29 +9621,31 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>493</v>
+        <v>441</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>496</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>83</v>
       </c>
@@ -9595,22 +9663,22 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>183</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>501</v>
+        <v>437</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9635,13 +9703,13 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>490</v>
+        <v>83</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>502</v>
+        <v>83</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>503</v>
+        <v>83</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9659,7 +9727,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>497</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9668,7 +9736,7 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9677,35 +9745,37 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>83</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>93</v>
@@ -9717,21 +9787,23 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>507</v>
+        <v>161</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9779,7 +9851,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9788,7 +9860,7 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -9797,27 +9869,27 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>511</v>
+        <v>441</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>512</v>
+        <v>442</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>513</v>
+        <v>443</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>514</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9840,18 +9912,20 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>516</v>
+        <v>183</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9875,13 +9949,13 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>83</v>
+        <v>464</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>83</v>
+        <v>465</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -9899,7 +9973,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9908,7 +9982,7 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>83</v>
+        <v>466</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>105</v>
@@ -9917,31 +9991,31 @@
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>520</v>
+        <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>521</v>
+        <v>136</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>522</v>
+        <v>467</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>523</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>83</v>
+        <v>469</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9960,19 +10034,19 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>525</v>
+        <v>183</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>529</v>
+        <v>473</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -9997,13 +10071,13 @@
         <v>83</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>83</v>
+        <v>474</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>83</v>
+        <v>475</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>83</v>
@@ -10021,7 +10095,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10033,33 +10107,33 @@
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>530</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>83</v>
+        <v>476</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>531</v>
+        <v>477</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>532</v>
+        <v>478</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>83</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>533</v>
+        <v>480</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>533</v>
+        <v>480</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10070,7 +10144,7 @@
         <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>83</v>
@@ -10082,16 +10156,20 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>161</v>
+        <v>481</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>162</v>
+        <v>482</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
       </c>
@@ -10139,19 +10217,19 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>164</v>
+        <v>480</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>83</v>
@@ -10160,10 +10238,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>83</v>
+        <v>486</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>165</v>
+        <v>487</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -10174,21 +10252,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>83</v>
@@ -10200,17 +10278,15 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -10259,19 +10335,19 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>83</v>
@@ -10294,14 +10370,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>536</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10314,26 +10390,24 @@
         <v>83</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>537</v>
+        <v>140</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>538</v>
+        <v>167</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O66" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>83</v>
       </c>
@@ -10369,19 +10443,19 @@
         <v>83</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>539</v>
+        <v>171</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10405,7 +10479,7 @@
         <v>83</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10416,10 +10490,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10439,19 +10513,19 @@
         <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10501,7 +10575,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10510,7 +10584,7 @@
         <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>545</v>
+        <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -10522,10 +10596,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>546</v>
+        <v>136</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>547</v>
+        <v>496</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10536,10 +10610,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10559,20 +10633,18 @@
         <v>83</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10621,7 +10693,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10630,7 +10702,7 @@
         <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>545</v>
+        <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>105</v>
@@ -10642,10 +10714,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>546</v>
+        <v>136</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10656,10 +10728,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10667,7 +10739,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>93</v>
@@ -10679,23 +10751,21 @@
         <v>83</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>183</v>
+        <v>504</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>553</v>
+        <v>505</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>554</v>
+        <v>506</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>83</v>
       </c>
@@ -10719,13 +10789,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>557</v>
+        <v>83</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>558</v>
+        <v>83</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10743,10 +10813,10 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>93</v>
@@ -10761,13 +10831,13 @@
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>559</v>
+        <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>560</v>
+        <v>136</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10778,10 +10848,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10792,7 +10862,7 @@
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -10807,17 +10877,15 @@
         <v>183</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>83</v>
       </c>
@@ -10841,13 +10909,13 @@
         <v>83</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>566</v>
+        <v>515</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>567</v>
+        <v>516</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>83</v>
@@ -10865,13 +10933,13 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>83</v>
@@ -10883,27 +10951,27 @@
         <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>559</v>
+        <v>517</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>560</v>
+        <v>518</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>83</v>
+        <v>520</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10926,19 +10994,19 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>569</v>
+        <v>183</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>571</v>
+        <v>523</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>572</v>
+        <v>524</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>573</v>
+        <v>525</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10963,13 +11031,13 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>83</v>
+        <v>514</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>83</v>
+        <v>526</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>83</v>
+        <v>527</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
@@ -10987,7 +11055,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -11008,10 +11076,10 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>83</v>
+        <v>528</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -11022,10 +11090,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11033,7 +11101,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>93</v>
@@ -11048,16 +11116,16 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>161</v>
+        <v>531</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>577</v>
+        <v>533</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>328</v>
+        <v>534</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11107,7 +11175,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11125,27 +11193,27 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>83</v>
+        <v>535</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>83</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11156,7 +11224,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>83</v>
@@ -11165,19 +11233,19 @@
         <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11227,13 +11295,13 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>83</v>
@@ -11245,27 +11313,27 @@
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>83</v>
+        <v>544</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>83</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11285,21 +11353,23 @@
         <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
       </c>
@@ -11347,7 +11417,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11359,7 +11429,7 @@
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>105</v>
+        <v>554</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
@@ -11368,10 +11438,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11382,10 +11452,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11396,7 +11466,7 @@
         <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>83</v>
@@ -11405,23 +11475,19 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>525</v>
+        <v>161</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>593</v>
+        <v>162</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>83</v>
       </c>
@@ -11469,19 +11535,19 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>592</v>
+        <v>164</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
@@ -11490,10 +11556,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>597</v>
+        <v>83</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>598</v>
+        <v>165</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11504,21 +11570,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>83</v>
@@ -11530,15 +11596,17 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11587,19 +11655,19 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>83</v>
@@ -11622,14 +11690,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>138</v>
+        <v>560</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11642,24 +11710,26 @@
         <v>83</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>140</v>
+        <v>561</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>167</v>
+        <v>562</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="O77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
       </c>
@@ -11707,7 +11777,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>171</v>
+        <v>563</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11731,7 +11801,7 @@
         <v>83</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11742,46 +11812,44 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>601</v>
+        <v>564</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>601</v>
+        <v>564</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>536</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>139</v>
+        <v>565</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>83</v>
       </c>
@@ -11829,19 +11897,19 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>83</v>
+        <v>569</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>83</v>
@@ -11850,10 +11918,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>83</v>
+        <v>570</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>136</v>
+        <v>571</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11864,10 +11932,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11875,7 +11943,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>93</v>
@@ -11887,23 +11955,21 @@
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>183</v>
+        <v>565</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>83</v>
       </c>
@@ -11927,13 +11993,13 @@
         <v>83</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>490</v>
+        <v>83</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>606</v>
+        <v>83</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>607</v>
+        <v>83</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>83</v>
@@ -11951,16 +12017,16 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>83</v>
+        <v>569</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>105</v>
@@ -11969,16 +12035,16 @@
         <v>83</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>608</v>
+        <v>83</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>299</v>
+        <v>570</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>300</v>
+        <v>575</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>83</v>
@@ -11986,10 +12052,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12009,22 +12075,22 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>610</v>
+        <v>183</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>413</v>
+        <v>580</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12049,13 +12115,13 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>83</v>
+        <v>581</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>83</v>
+        <v>582</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>83</v>
@@ -12073,7 +12139,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12091,27 +12157,27 @@
         <v>83</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>614</v>
+        <v>583</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>418</v>
+        <v>584</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>420</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12122,7 +12188,7 @@
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>83</v>
@@ -12137,16 +12203,16 @@
         <v>183</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>439</v>
+        <v>589</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>83</v>
@@ -12171,13 +12237,13 @@
         <v>83</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>188</v>
+        <v>514</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>440</v>
+        <v>590</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>441</v>
+        <v>591</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -12195,16 +12261,16 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>105</v>
@@ -12213,13 +12279,13 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>83</v>
+        <v>583</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>136</v>
+        <v>584</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>83</v>
@@ -12230,21 +12296,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>445</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>83</v>
@@ -12256,19 +12322,19 @@
         <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>183</v>
+        <v>593</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -12293,13 +12359,13 @@
         <v>83</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>450</v>
+        <v>83</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>451</v>
+        <v>83</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>83</v>
@@ -12317,13 +12383,13 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>83</v>
@@ -12335,27 +12401,27 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>452</v>
+        <v>83</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>454</v>
+        <v>598</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>455</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12366,7 +12432,7 @@
         <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>83</v>
@@ -12378,20 +12444,18 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>83</v>
       </c>
@@ -12439,13 +12503,13 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>83</v>
@@ -12460,15 +12524,1347 @@
         <v>83</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP83" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>83</v>
       </c>
     </row>
